--- a/data/trans_orig/P78_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>214851</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>201432</v>
+        <v>200425</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>225262</v>
+        <v>226137</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8757687347801864</v>
+        <v>0.8757687347801861</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8210733104618038</v>
+        <v>0.8169675574409389</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9182068650451778</v>
+        <v>0.9217744598822647</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>319</v>
@@ -762,19 +762,19 @@
         <v>261780</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>242503</v>
+        <v>242231</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>279404</v>
+        <v>280319</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6237977791071658</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5778632205225638</v>
+        <v>0.5772142895918777</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6657934097928047</v>
+        <v>0.6679746720742321</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>483</v>
@@ -783,19 +783,19 @@
         <v>476630</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>452329</v>
+        <v>451414</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>498869</v>
+        <v>500280</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7167559112211805</v>
+        <v>0.7167559112211804</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6802114064476591</v>
+        <v>0.6788359276708082</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7501979133387089</v>
+        <v>0.752319522490128</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>30477</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20066</v>
+        <v>19191</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43896</v>
+        <v>44903</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1242312652198138</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08179313495482229</v>
+        <v>0.07822554011773537</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1789266895381966</v>
+        <v>0.1830324425590611</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>222</v>
@@ -833,19 +833,19 @@
         <v>157875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>140251</v>
+        <v>139336</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>177152</v>
+        <v>177424</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3762022208928342</v>
+        <v>0.3762022208928341</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3342065902071954</v>
+        <v>0.3320253279257679</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4221367794774361</v>
+        <v>0.4227857104081224</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>245</v>
@@ -854,19 +854,19 @@
         <v>188353</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>166114</v>
+        <v>164703</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>212654</v>
+        <v>213569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2832440887788195</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2498020866612911</v>
+        <v>0.2476804775098721</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3197885935523409</v>
+        <v>0.3211640723291919</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>572134</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>547794</v>
+        <v>548717</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>587630</v>
+        <v>588242</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9210130474889803</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8818297182338553</v>
+        <v>0.8833162898559169</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9459586784038866</v>
+        <v>0.946942784105716</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>754</v>
@@ -979,19 +979,19 @@
         <v>606820</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>583001</v>
+        <v>584379</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>627832</v>
+        <v>628476</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7142268262606598</v>
+        <v>0.7142268262606597</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6861921063781106</v>
+        <v>0.6878138476748218</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7389581089911418</v>
+        <v>0.739715536197209</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1216</v>
@@ -1000,19 +1000,19 @@
         <v>1178954</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1146230</v>
+        <v>1146434</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1206189</v>
+        <v>1205594</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8015631152833418</v>
+        <v>0.8015631152833419</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7793138523513118</v>
+        <v>0.7794531111133225</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8200799316435819</v>
+        <v>0.8196752776060279</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>49067</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33571</v>
+        <v>32959</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>73407</v>
+        <v>72484</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07898695251101964</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05404132159611324</v>
+        <v>0.05305721589428402</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1181702817661446</v>
+        <v>0.1166837101440832</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>415</v>
@@ -1050,19 +1050,19 @@
         <v>242798</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>221786</v>
+        <v>221142</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>266617</v>
+        <v>265239</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2857731737393403</v>
+        <v>0.2857731737393402</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2610418910088578</v>
+        <v>0.2602844638027906</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3138078936218895</v>
+        <v>0.312186152325178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>445</v>
@@ -1071,19 +1071,19 @@
         <v>291865</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>264630</v>
+        <v>265225</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>324589</v>
+        <v>324385</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1984368847166582</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1799200683564178</v>
+        <v>0.180324722393972</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.220686147648688</v>
+        <v>0.2205468888866775</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>731632</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>716118</v>
+        <v>717606</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>740728</v>
+        <v>740592</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9693389483881029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9487844508047627</v>
+        <v>0.9507561883361731</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9813903031322634</v>
+        <v>0.9812098739086635</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>922</v>
@@ -1196,19 +1196,19 @@
         <v>702046</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>682131</v>
+        <v>683025</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>720418</v>
+        <v>719033</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8208671708137034</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7975818303290663</v>
+        <v>0.7986270818091159</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.842349194218513</v>
+        <v>0.840729213167259</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1539</v>
@@ -1217,19 +1217,19 @@
         <v>1433678</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1408293</v>
+        <v>1411899</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1453610</v>
+        <v>1454730</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.890470296567525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8747036416862265</v>
+        <v>0.8769434831728491</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9028505453461867</v>
+        <v>0.9035462745822952</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>23142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14046</v>
+        <v>14182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38656</v>
+        <v>37168</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03066105161189722</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01860969686773666</v>
+        <v>0.018790126091337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05121554919523724</v>
+        <v>0.04924381166382708</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>264</v>
@@ -1267,19 +1267,19 @@
         <v>153203</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>134831</v>
+        <v>136216</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>173118</v>
+        <v>172224</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1791328291862964</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1576508057814872</v>
+        <v>0.1592707868327412</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2024181696709337</v>
+        <v>0.201372918190884</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>283</v>
@@ -1288,19 +1288,19 @@
         <v>176345</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>156413</v>
+        <v>155293</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>201730</v>
+        <v>198124</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1095297034324751</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09714945465381326</v>
+        <v>0.09645372541770462</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1252963583137734</v>
+        <v>0.123056516827151</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>670720</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>654940</v>
+        <v>654821</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>680891</v>
+        <v>679777</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9712401977545053</v>
+        <v>0.9712401977545054</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9483900849741768</v>
+        <v>0.9482168534915688</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9859680418254916</v>
+        <v>0.9843552902009637</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>786</v>
@@ -1413,19 +1413,19 @@
         <v>596328</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>580219</v>
+        <v>581210</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>611018</v>
+        <v>610424</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8577614431065683</v>
+        <v>0.8577614431065682</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8345907056615547</v>
+        <v>0.8360165787704906</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8788921943276533</v>
+        <v>0.8780373816128971</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1357</v>
@@ -1434,19 +1434,19 @@
         <v>1267048</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1243405</v>
+        <v>1244761</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1285060</v>
+        <v>1284294</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9143111627560697</v>
+        <v>0.9143111627560696</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8972502322956613</v>
+        <v>0.8982285780165792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9273089251410778</v>
+        <v>0.9267559587598179</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>19861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9690</v>
+        <v>10804</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35641</v>
+        <v>35760</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02875980224549453</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01403195817450851</v>
+        <v>0.01564470979903637</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0516099150258236</v>
+        <v>0.05178314650843123</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>178</v>
@@ -1484,19 +1484,19 @@
         <v>98886</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>84196</v>
+        <v>84790</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>114995</v>
+        <v>114004</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1422385568934318</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1211078056723466</v>
+        <v>0.121962618387103</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1654092943384452</v>
+        <v>0.1639834212295095</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>192</v>
@@ -1505,19 +1505,19 @@
         <v>118747</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>100735</v>
+        <v>101501</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>142390</v>
+        <v>141034</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.08568883724393027</v>
+        <v>0.08568883724393025</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07269107485892207</v>
+        <v>0.07324404124018224</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1027497677043388</v>
+        <v>0.101771421983421</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>2189338</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2155835</v>
+        <v>2158418</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2213908</v>
+        <v>2214590</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9469924387383744</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9325010528015774</v>
+        <v>0.9336182595245069</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9576202776863233</v>
+        <v>0.9579151185139284</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2781</v>
@@ -1630,19 +1630,19 @@
         <v>2166973</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2126361</v>
+        <v>2124117</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2206185</v>
+        <v>2201990</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7685022371409868</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7540996862373424</v>
+        <v>0.7533037640621285</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7824085420495103</v>
+        <v>0.7809209773108466</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4595</v>
@@ -1651,19 +1651,19 @@
         <v>4356310</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4304979</v>
+        <v>4301557</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4402097</v>
+        <v>4402697</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8489152062337569</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8389122824582739</v>
+        <v>0.8382453623683622</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8578376797281072</v>
+        <v>0.8579545636026279</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>122547</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97977</v>
+        <v>97295</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>156050</v>
+        <v>153467</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0530075612616256</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0423797223136768</v>
+        <v>0.04208488148607143</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06749894719842266</v>
+        <v>0.06638174047549304</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1079</v>
@@ -1701,19 +1701,19 @@
         <v>652762</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>613550</v>
+        <v>617745</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>693374</v>
+        <v>695618</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2314977628590132</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2175914579504898</v>
+        <v>0.2190790226891535</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2459003137626579</v>
+        <v>0.2466962359378717</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1165</v>
@@ -1722,19 +1722,19 @@
         <v>775310</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>729523</v>
+        <v>728923</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>826641</v>
+        <v>830063</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1510847937662431</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1421623202718933</v>
+        <v>0.1420454363973721</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1610877175417263</v>
+        <v>0.1617546376316377</v>
       </c>
     </row>
     <row r="18">
